--- a/data/trans_camb/IP2004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,1</t>
+          <t>-4,11; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,93</t>
+          <t>-4,69; -0,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,26</t>
+          <t>-3,18; 2,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,92</t>
+          <t>-2,07; 2,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,04</t>
+          <t>-1,5; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,87</t>
+          <t>-3,11; 0,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,94</t>
+          <t>-2,53; 0,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,17</t>
+          <t>-2,39; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,82</t>
+          <t>-2,45; 1,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>-67,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,99%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-72,98%</t>
+          <t>-53,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-29,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,97%</t>
+          <t>-25,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,27%</t>
+          <t>-28,19%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 89,98</t>
+          <t>-86,31; 48,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 30,74</t>
+          <t>-93,03; 7,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 1,29</t>
+          <t>-67,5; 122,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 66,92</t>
+          <t>-67,16; 265,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,83; 26,06</t>
+          <t>-51,03; 333,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,14; -37,82</t>
+          <t>-100,0; 127,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 45,1</t>
+          <t>-69,07; 40,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 6,01</t>
+          <t>-65,47; 53,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,0; -36,09</t>
+          <t>-69,68; 58,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-3,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,8</t>
+          <t>-3,19; 3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -0,15</t>
+          <t>-4,67; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,49</t>
+          <t>-5,15; -0,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,28</t>
+          <t>-3,99; 2,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,33</t>
+          <t>-5,28; 1,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,66</t>
+          <t>-7,41; -1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,72</t>
+          <t>-2,43; 1,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,95</t>
+          <t>-3,97; 0,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,03</t>
+          <t>-5,54; -1,82</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-67,61%</t>
+          <t>-36,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-49,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>-31,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,67%</t>
+          <t>-72,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,85%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>-33,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,19%</t>
+          <t>-62,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,31; 48,09</t>
+          <t>-50,41; 89,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,03; 7,9</t>
+          <t>-73,19; 30,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,5; 122,17</t>
+          <t>-75,56; 1,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,16; 265,79</t>
+          <t>-50,9; 66,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 333,76</t>
+          <t>-65,83; 26,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,45</t>
+          <t>-89,14; -37,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 40,98</t>
+          <t>-38,54; 45,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,47; 53,94</t>
+          <t>-59,21; 6,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 58,54</t>
+          <t>-79,0; -36,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 0,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 0,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>-1,92; 0,0</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>-1,93; 0,0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 1,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 2,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 0,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 0,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 0,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; -0,16</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,36</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>34,41%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,53%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-63,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,8</t>
+          <t>-1,45; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -0,15</t>
+          <t>-2,58; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,49</t>
+          <t>-0,32; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,28</t>
+          <t>-0,35; 3,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,33</t>
+          <t>-1,24; 2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,66</t>
+          <t>-2,42; -0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,72</t>
+          <t>-0,55; 1,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,95</t>
+          <t>-1,36; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,03</t>
+          <t>-0,83; 1,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-67,61%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>147,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>129,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,67%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,85%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,91%</t>
+          <t>-58,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,19%</t>
+          <t>35,23%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,31; 48,09</t>
+          <t>-100,0; 698,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,03; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,5; 122,17</t>
+          <t>-49,62; 1184,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,16; 265,79</t>
+          <t>-49,64; 910,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 333,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 40,98</t>
+          <t>-48,4; 347,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,47; 53,94</t>
+          <t>-100,0; 212,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 58,54</t>
+          <t>-63,7; 322,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,1</t>
+          <t>-5,73; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,93</t>
+          <t>-7,08; -0,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,26</t>
+          <t>-7,1; -0,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,92</t>
+          <t>-6,24; 0,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,04</t>
+          <t>-3,61; 3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,87</t>
+          <t>-6,6; 0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,94</t>
+          <t>-4,69; 1,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,17</t>
+          <t>-4,52; 0,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -1,82</t>
+          <t>-5,71; -0,61</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-30,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>-59,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,99%</t>
+          <t>-57,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>-45,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-72,98%</t>
+          <t>-59,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-37,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-33,97%</t>
+          <t>-32,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-62,27%</t>
+          <t>-58,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 89,98</t>
+          <t>-76,48; 68,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 30,74</t>
+          <t>-89,61; 4,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 1,29</t>
+          <t>-87,07; 8,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 66,92</t>
+          <t>-82,85; 52,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,83; 26,06</t>
+          <t>-55,54; 153,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,14; -37,82</t>
+          <t>-88,59; 43,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 45,1</t>
+          <t>-70,38; 33,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,21; 6,01</t>
+          <t>-64,81; 25,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,0; -36,09</t>
+          <t>-80,45; -7,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-4,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,8</t>
+          <t>-4,79; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,39</t>
+          <t>-4,9; 2,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,57</t>
+          <t>-6,68; -0,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,34</t>
+          <t>-4,2; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,97</t>
+          <t>-6,0; 1,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,93</t>
+          <t>-8,51; -1,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,5</t>
+          <t>-3,1; 2,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; -0,02</t>
+          <t>-4,42; 0,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; -0,51</t>
+          <t>-6,32; -1,91</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,98%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-48,4%</t>
+          <t>-24,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-27,77%</t>
+          <t>-56,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-32,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,31%</t>
+          <t>-74,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,26%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-32,91%</t>
+          <t>-28,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,89%</t>
+          <t>-65,74%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 35,67</t>
+          <t>-64,87; 77,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -9,91</t>
+          <t>-70,65; 73,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 21,7</t>
+          <t>-82,48; -1,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 50,94</t>
+          <t>-47,6; 100,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 36,35</t>
+          <t>-68,1; 42,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,79; -26,03</t>
+          <t>-90,91; -17,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 20,62</t>
+          <t>-43,69; 56,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 2,49</t>
+          <t>-60,36; 19,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,25; -15,49</t>
+          <t>-82,61; -40,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,71</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; -0,18</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,65</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 1,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 0,88</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; -0,93</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 0,59</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; -0,06</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; -0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-22,98%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-48,4%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-27,77%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-7,7%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-17,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-64,31%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-32,91%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-45,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-53,36; 34,88</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-73,45; -0,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-58,24; 28,68</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-46,87; 50,37</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-50,25; 35,52</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-84,47; -31,59</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,07; 21,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-54,93; -1,95</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-65,75; -18,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP2004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -700,27 +700,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-4,21; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,0</t>
+          <t>-4,25; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 0,0</t>
+          <t>-4,3; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,0</t>
+          <t>-1,94; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>-1,94; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,52</t>
+          <t>-1,49; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; -0,26</t>
+          <t>-2,39; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,48</t>
+          <t>-0,5; 4,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,33</t>
+          <t>-0,48; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,22</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,27</t>
+          <t>-2,23; -0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,81</t>
+          <t>-0,54; 1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,41</t>
+          <t>-1,5; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,92</t>
+          <t>-0,88; 1,98</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 698,72</t>
+          <t>-100,0; 351,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 1184,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 910,01</t>
+          <t>-51,05; 993,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 347,82</t>
+          <t>-44,29; 340,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,52</t>
+          <t>-100,0; 155,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,7; 322,31</t>
+          <t>-67,99; 378,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,03</t>
+          <t>-5,85; 2,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -0,16</t>
+          <t>-7,05; -0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -0,18</t>
+          <t>-7,38; 0,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,85</t>
+          <t>-6,03; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,5</t>
+          <t>-4,28; 3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,33</t>
+          <t>-6,81; 0,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,05</t>
+          <t>-4,48; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,82</t>
+          <t>-4,49; 0,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,61</t>
+          <t>-5,65; -0,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 68,6</t>
+          <t>-75,56; 82,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,61; 4,38</t>
+          <t>-88,61; 8,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,07; 8,18</t>
+          <t>-87,49; 17,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 52,97</t>
+          <t>-86,02; 53,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 153,05</t>
+          <t>-59,44; 150,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,59; 43,4</t>
+          <t>-90,16; 45,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,38; 33,12</t>
+          <t>-67,88; 22,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 25,2</t>
+          <t>-65,23; 22,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,45; -7,15</t>
+          <t>-80,45; -3,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,86</t>
+          <t>-4,46; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,42</t>
+          <t>-4,88; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -0,21</t>
+          <t>-6,69; -0,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,56</t>
+          <t>-4,06; 4,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 1,78</t>
+          <t>-6,23; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -1,78</t>
+          <t>-8,75; -1,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,78</t>
+          <t>-3,07; 2,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,88</t>
+          <t>-4,18; 0,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -1,91</t>
+          <t>-6,46; -1,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 77,62</t>
+          <t>-61,53; 68,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 73,74</t>
+          <t>-67,32; 62,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,48; -1,18</t>
+          <t>-83,31; -6,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 100,61</t>
+          <t>-47,67; 102,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,1; 42,1</t>
+          <t>-69,89; 50,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,91; -17,0</t>
+          <t>-91,96; -32,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 56,6</t>
+          <t>-40,72; 58,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 19,55</t>
+          <t>-58,68; 25,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-82,61; -40,4</t>
+          <t>-82,2; -34,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,71</t>
+          <t>-2,22; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; -0,18</t>
+          <t>-2,88; -0,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,65</t>
+          <t>-2,4; 0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,26</t>
+          <t>-1,86; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,88</t>
+          <t>-2,15; 1,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,93</t>
+          <t>-3,51; -0,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,59</t>
+          <t>-1,51; 0,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,06</t>
+          <t>-2,16; -0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,55</t>
+          <t>-2,58; -0,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 34,88</t>
+          <t>-56,07; 27,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,45; -0,8</t>
+          <t>-74,33; -8,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 28,68</t>
+          <t>-61,74; 21,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 50,37</t>
+          <t>-43,82; 51,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 35,52</t>
+          <t>-52,45; 40,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,47; -31,59</t>
+          <t>-83,57; -27,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 21,31</t>
+          <t>-40,0; 23,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -1,95</t>
+          <t>-55,59; -0,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,75; -18,69</t>
+          <t>-65,39; -19,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,49; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 0,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 0,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 0,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 0,0</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>-2,2; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-0,08</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-1,04</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,47</t>
+          <t>-0,38; 3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,26</t>
+          <t>-1,5; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,8</t>
+          <t>-2,41; -0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,25</t>
+          <t>-1,55; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,88</t>
+          <t>-2,7; -0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; -0,27</t>
+          <t>-0,47; 4,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,82</t>
+          <t>-0,54; 1,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,39</t>
+          <t>-1,35; 0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,98</t>
+          <t>-0,76; 1,92</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>129,44%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-7,44%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>147,91%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>129,44%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,05%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>140,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 351,96</t>
+          <t>-44,73; 1111,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 993,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,06; 1277,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 340,19</t>
+          <t>-47,4; 324,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 155,2</t>
+          <t>-100,0; 210,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 378,95</t>
+          <t>-67,4; 343,7</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,68</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-3,3</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 2,38</t>
+          <t>-6,03; 0,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -0,32</t>
+          <t>-3,95; 4,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 0,1</t>
+          <t>-6,52; 0,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,06</t>
+          <t>-5,6; 2,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,8</t>
+          <t>-7,38; -0,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,31</t>
+          <t>-7,19; 0,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,64</t>
+          <t>-4,95; 0,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,74</t>
+          <t>-4,27; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -0,46</t>
+          <t>-5,68; -0,8</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-45,99%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-60,28%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-30,59%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-59,97%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-57,31%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-45,99%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,2%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-59,39%</t>
+          <t>-58,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-58,11%</t>
+          <t>-58,85%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 82,64</t>
+          <t>-83,62; 48,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,61; 8,53</t>
+          <t>-57,66; 155,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,49; 17,09</t>
+          <t>-90,01; 24,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,02; 53,31</t>
+          <t>-73,42; 77,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 150,72</t>
+          <t>-88,66; 14,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,16; 45,25</t>
+          <t>-86,21; 23,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,88; 22,39</t>
+          <t>-69,51; 17,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 22,64</t>
+          <t>-62,02; 32,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,45; -3,32</t>
+          <t>-82,03; -10,3</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,79</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,33</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-4,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,68</t>
+          <t>-4,03; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,16</t>
+          <t>-6,24; 2,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; -0,57</t>
+          <t>-8,86; -2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,6</t>
+          <t>-4,36; 3,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,92</t>
+          <t>-4,89; 2,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,92</t>
+          <t>-6,15; -0,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,62</t>
+          <t>-3,24; 2,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,99</t>
+          <t>-4,46; 0,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -1,98</t>
+          <t>-6,37; -1,87</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-32,96%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-76,23%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-14,37%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-24,03%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-56,12%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-32,96%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-74,34%</t>
+          <t>-54,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-65,74%</t>
+          <t>-66,17%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 68,56</t>
+          <t>-46,36; 119,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,32; 62,99</t>
+          <t>-73,06; 52,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,31; -6,24</t>
+          <t>-93,18; -43,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 102,39</t>
+          <t>-59,33; 97,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 50,65</t>
+          <t>-66,46; 77,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,96; -32,86</t>
+          <t>-79,04; 7,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 58,86</t>
+          <t>-43,7; 49,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 25,15</t>
+          <t>-60,04; 18,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-82,2; -34,16</t>
+          <t>-81,56; -37,83</t>
         </is>
       </c>
     </row>
@@ -1496,34 +1496,34 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,73</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>-0,88</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
           <t>-0,5</t>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,73</t>
+          <t>-1,85; 1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,27</t>
+          <t>-2,29; 0,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,5</t>
+          <t>-3,89; -1,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,4</t>
+          <t>-2,1; 0,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,0</t>
+          <t>-2,88; -0,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,84</t>
+          <t>-2,26; 0,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,63</t>
+          <t>-1,61; 0,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,02</t>
+          <t>-2,06; -0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; -0,58</t>
+          <t>-2,53; -0,55</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-7,7%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-17,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-65,99%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-22,98%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-48,4%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-27,77%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-7,7%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-17,67%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-64,31%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-45,89%</t>
+          <t>-46,55%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 27,63</t>
+          <t>-43,6; 50,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,33; -8,23</t>
+          <t>-51,94; 36,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 21,28</t>
+          <t>-84,58; -29,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 51,32</t>
+          <t>-54,11; 35,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 40,37</t>
+          <t>-71,9; -9,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,57; -27,06</t>
+          <t>-57,81; 22,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 23,26</t>
+          <t>-40,92; 20,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,59; -0,22</t>
+          <t>-54,62; 2,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,39; -19,85</t>
+          <t>-66,06; -17,16</t>
         </is>
       </c>
     </row>
